--- a/Birthday list.xlsx
+++ b/Birthday list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\birthday_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A745A5-2B0B-44E2-94E0-7520E5333EF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB21EADF-A666-4CC9-AEFD-0140B06ACF44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="8">
   <si>
     <t>S no.</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Phone Number</t>
   </si>
   <si>
-    <t>2019,2020</t>
-  </si>
-  <si>
     <t>Your Custom Birthday Message Here</t>
   </si>
   <si>
@@ -54,7 +51,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -110,7 +107,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -419,7 +416,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,16 +455,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2">
-        <v>43854</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+        <v>44177</v>
+      </c>
+      <c r="D2">
+        <v>2020</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>917289900926</v>
@@ -478,16 +475,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>43871</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
+        <v>44177</v>
+      </c>
+      <c r="D3">
+        <v>2020</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>917289900926</v>
@@ -498,16 +495,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>43871</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
+        <v>44177</v>
+      </c>
+      <c r="D4">
+        <v>2020</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>919868765046</v>
@@ -518,16 +515,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
-        <v>44043</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
+        <v>44177</v>
+      </c>
+      <c r="D5">
+        <v>2020</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>919868708330</v>
@@ -538,16 +535,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2">
-        <v>43906</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
+        <v>44177</v>
+      </c>
+      <c r="D6">
+        <v>2020</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>917289900926</v>
@@ -558,16 +555,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>44086</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
+        <v>44177</v>
+      </c>
+      <c r="D7">
+        <v>2020</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <v>917289900926</v>
@@ -578,16 +575,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2">
-        <v>44117</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
+        <v>44177</v>
+      </c>
+      <c r="D8">
+        <v>2020</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>917289900926</v>
@@ -598,16 +595,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2">
-        <v>44049</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
+        <v>44177</v>
+      </c>
+      <c r="D9">
+        <v>2020</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9">
         <v>917289900926</v>
@@ -618,16 +615,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2">
         <v>44177</v>
       </c>
-      <c r="D10" t="s">
-        <v>6</v>
+      <c r="D10">
+        <v>2020</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10">
         <v>917289900926</v>
@@ -638,16 +635,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2">
-        <v>44037</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
+        <v>44177</v>
+      </c>
+      <c r="D11">
+        <v>2020</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11">
         <v>917289900926</v>
@@ -658,16 +655,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2">
-        <v>43907</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
+        <v>44177</v>
+      </c>
+      <c r="D12">
+        <v>2020</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12">
         <v>917289900926</v>
@@ -678,16 +675,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2">
         <v>44177</v>
       </c>
-      <c r="D13" t="s">
-        <v>6</v>
+      <c r="D13">
+        <v>2020</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <v>917289900926</v>
@@ -698,16 +695,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2">
-        <v>44182</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
+        <v>44177</v>
+      </c>
+      <c r="D14">
+        <v>2020</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14">
         <v>917289900926</v>
@@ -718,16 +715,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2">
-        <v>43831</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
+        <v>44177</v>
+      </c>
+      <c r="D15">
+        <v>2020</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15">
         <v>917289900926</v>
@@ -738,16 +735,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2">
         <v>44177</v>
       </c>
-      <c r="D16" t="s">
-        <v>6</v>
+      <c r="D16">
+        <v>2020</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16">
         <v>917289900926</v>
@@ -758,16 +755,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2">
-        <v>44128</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
+        <v>44177</v>
+      </c>
+      <c r="D17">
+        <v>2020</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17">
         <v>917289900926</v>
@@ -778,16 +775,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="2">
-        <v>44172</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
+        <v>44177</v>
+      </c>
+      <c r="D18">
+        <v>2020</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18">
         <v>917289900926</v>
@@ -798,16 +795,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2">
-        <v>43840</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
+        <v>44177</v>
+      </c>
+      <c r="D19">
+        <v>2020</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19">
         <v>917289900926</v>
@@ -818,16 +815,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2">
-        <v>44025</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
+        <v>44177</v>
+      </c>
+      <c r="D20">
+        <v>2020</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20">
         <v>917289900926</v>
@@ -838,16 +835,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2">
         <v>44177</v>
       </c>
-      <c r="D21" t="s">
-        <v>6</v>
+      <c r="D21">
+        <v>2020</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21">
         <v>917289900926</v>
@@ -858,16 +855,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="2">
         <v>44177</v>
       </c>
-      <c r="D22" t="s">
-        <v>6</v>
+      <c r="D22">
+        <v>2020</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22">
         <v>917289900926</v>
@@ -878,16 +875,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2">
-        <v>44196</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
+        <v>44177</v>
+      </c>
+      <c r="D23">
+        <v>2020</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23">
         <v>917289900926</v>
@@ -898,16 +895,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2">
-        <v>44118</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
+        <v>44177</v>
+      </c>
+      <c r="D24">
+        <v>2020</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24">
         <v>917289900926</v>
@@ -918,16 +915,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="2">
         <v>44177</v>
       </c>
-      <c r="D25" t="s">
-        <v>6</v>
+      <c r="D25">
+        <v>2020</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25">
         <v>917289900926</v>
@@ -938,16 +935,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="2">
         <v>44177</v>
       </c>
-      <c r="D26" t="s">
-        <v>6</v>
+      <c r="D26">
+        <v>2020</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26">
         <v>917289900926</v>
@@ -958,16 +955,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" s="2">
-        <v>44032</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
+        <v>44177</v>
+      </c>
+      <c r="D27">
+        <v>2020</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27">
         <v>917289900926</v>
@@ -978,16 +975,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" s="2">
-        <v>44091</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
+        <v>44177</v>
+      </c>
+      <c r="D28">
+        <v>2020</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28">
         <v>917289900926</v>
@@ -998,16 +995,16 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="2">
-        <v>43904</v>
-      </c>
-      <c r="D29" t="s">
-        <v>6</v>
+        <v>44177</v>
+      </c>
+      <c r="D29">
+        <v>2020</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29">
         <v>917289900926</v>
@@ -1018,16 +1015,16 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="2">
-        <v>43966</v>
-      </c>
-      <c r="D30" t="s">
-        <v>6</v>
+        <v>44177</v>
+      </c>
+      <c r="D30">
+        <v>2020</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30">
         <v>917289900926</v>
@@ -1038,16 +1035,16 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" s="2">
-        <v>43879</v>
-      </c>
-      <c r="D31" t="s">
-        <v>6</v>
+        <v>44177</v>
+      </c>
+      <c r="D31">
+        <v>2020</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31">
         <v>917289900926</v>
@@ -1058,16 +1055,16 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" s="2">
-        <v>43990</v>
-      </c>
-      <c r="D32" t="s">
-        <v>6</v>
+        <v>44177</v>
+      </c>
+      <c r="D32">
+        <v>2020</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F32">
         <v>917289900926</v>
@@ -1078,16 +1075,16 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" s="2">
         <v>44177</v>
       </c>
-      <c r="D33" t="s">
-        <v>6</v>
+      <c r="D33">
+        <v>2020</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F33">
         <v>917289900926</v>
